--- a/testCasesPhase1.xlsx
+++ b/testCasesPhase1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCEC\Spring 2024\Project\Phase1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\-5-stage-pipelined-processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0C001A-AC9D-4192-9324-00D29DDF76C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184FBBBD-2784-4FDF-A302-F7D67E118800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06E0E356-286F-48FD-88D4-0CC20DCF3222}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{06E0E356-286F-48FD-88D4-0CC20DCF3222}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase1TestCases" sheetId="2" r:id="rId1"/>
@@ -162,10 +162,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,10 +370,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -401,14 +407,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2173,1835 +2183,1804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7928B553-5D51-423A-B53D-F4471913652E}">
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="30" width="10.42578125" style="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="8">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12"/>
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>2</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="7">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>4</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="7">
         <v>5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>6</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="7">
         <v>7</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>8</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="7">
         <v>9</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>10</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="7">
         <v>11</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>12</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="7">
         <v>13</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="8">
         <v>14</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="7">
         <v>15</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="8">
         <v>16</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="7">
         <v>17</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="8">
         <v>18</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="7">
         <v>19</v>
       </c>
-      <c r="U1" s="16">
+      <c r="U1" s="15">
         <v>20</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="8">
         <v>21</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="4" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="N6" s="18"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="15" t="s">
+      <c r="R9" s="18"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="V9" s="3"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="U10" s="15"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="N17" s="17"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="R21" s="17"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="S22" s="6"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="7"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="T23" s="17"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="U24" s="2"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="U25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="4"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="V25" s="3"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="S26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="15" t="s">
+      <c r="U26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="V26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-    </row>
-    <row r="28" spans="1:30" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-    </row>
-    <row r="29" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-    </row>
-    <row r="30" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-    </row>
-    <row r="31" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-    </row>
-    <row r="32" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-    </row>
-    <row r="33" spans="2:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-    </row>
-    <row r="34" spans="2:30" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
